--- a/hw2_usecase_requirement_list.xlsx
+++ b/hw2_usecase_requirement_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\answodud\Desktop\SE_HW2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11239798-3681-49B1-AFB1-3268B4A27625}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEA1C423-ED01-4155-B464-83695665F71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2930" yWindow="650" windowWidth="19400" windowHeight="14100" xr2:uid="{874C0683-1278-4AE4-B97F-6F37D411C365}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15500" xr2:uid="{874C0683-1278-4AE4-B97F-6F37D411C365}"/>
   </bookViews>
   <sheets>
     <sheet name="usecase requirement list" sheetId="3" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>No.</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -95,6 +95,14 @@
   </si>
   <si>
     <t>회원은 대여 중인 자전거 리스트를 조회 가능하고 각 항목에는 자전거 ID와 자전거 제품명이 출력된다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>개인 GitHub : https://github.com/answodud/SE_HW2_C111051_MunJaeyoung.git</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>채점내용 공개용 개인코드 : 13650</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -491,10 +499,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BE2212-1D95-40D6-8E41-4E4FEC407314}">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
@@ -505,80 +513,88 @@
     <col min="4" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" ht="34" x14ac:dyDescent="0.45">
+      <c r="B1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>2</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="1">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="6" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+      <c r="A8" s="1">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B8" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C8" s="1" t="s">
         <v>4</v>
       </c>
     </row>
